--- a/Docs/notes.xlsx
+++ b/Docs/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>TÊN BẢNG</t>
   </si>
@@ -1304,7 +1304,7 @@
   <dimension ref="C3:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1468,7 +1468,9 @@
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="3:5">
@@ -1482,7 +1484,9 @@
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="3:5">

--- a/Docs/notes.xlsx
+++ b/Docs/notes.xlsx
@@ -27,7 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+  <si>
+    <t>Danh sách làm việc theo bảng sql</t>
+  </si>
+  <si>
+    <t>Danh sách công việc và công bố thay đổi</t>
+  </si>
   <si>
     <t>TÊN BẢNG</t>
   </si>
@@ -38,22 +44,61 @@
     <t>NOTES</t>
   </si>
   <si>
+    <t>FIX THEO CHUẨN CLEAN ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>TASKS</t>
+  </si>
+  <si>
+    <t>UPDATES</t>
+  </si>
+  <si>
     <t>TaiKhoan</t>
   </si>
   <si>
     <t>V</t>
   </si>
   <si>
+    <t xml:space="preserve">File mẫu </t>
+  </si>
+  <si>
+    <t>Đã fix</t>
+  </si>
+  <si>
+    <t>Fix API core về đúng chuẩn Clean Architecture</t>
+  </si>
+  <si>
+    <t>Domain.Repository -&gt; Application.Interface</t>
+  </si>
+  <si>
     <t>ThongTinCaNhan</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>chuyển Domain.DTO -&gt; Application.DTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo Application.DTOs để thay thế Domain.DTO cũ </t>
+  </si>
+  <si>
     <t>BenhNhan</t>
   </si>
   <si>
+    <t>Xây dựng Domain.Entities để nhận giá trị trong lớp xử lý Infrastructure</t>
+  </si>
+  <si>
     <t>ChucVu</t>
   </si>
   <si>
+    <t>Xóa Domain.Repository khi hoàn thành fix</t>
+  </si>
+  <si>
     <t>NhanVien</t>
+  </si>
+  <si>
+    <t>Xóa Domain.DTO khi hoàn thành fix</t>
   </si>
   <si>
     <t>BacSiProfile</t>
@@ -144,21 +189,39 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -499,12 +562,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -625,148 +703,166 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1301,291 +1397,499 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:E34"/>
+  <dimension ref="C1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="33.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="13.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="12.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="48" customWidth="1"/>
+    <col min="8" max="8" width="67.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
-      <c r="C3" s="1" t="s">
+    <row r="1" ht="18.75" spans="3:9">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="3" spans="3:9">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="2" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="2" t="s">
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="2" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="2" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="2" t="s">
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="2" t="s">
+      <c r="I5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="2" t="s">
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="2" t="s">
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="2" t="s">
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="2" t="s">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="2" t="s">
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="2" t="s">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="2" t="s">
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="2" t="s">
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="2" t="s">
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="2" t="s">
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="2" t="s">
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="2" t="s">
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="2" t="s">
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="2" t="s">
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="2" t="s">
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="2" t="s">
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Docs/notes.xlsx
+++ b/Docs/notes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>Danh sách làm việc theo bảng sql</t>
   </si>
@@ -47,6 +47,9 @@
     <t>FIX THEO CHUẨN CLEAN ARCHITECTURE</t>
   </si>
   <si>
+    <t>TEST</t>
+  </si>
+  <si>
     <t>TASKS</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>Đã fix</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
   <si>
     <t>Fix API core về đúng chuẩn Clean Architecture</t>
@@ -189,7 +195,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +227,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -703,137 +715,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,6 +858,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -853,6 +868,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1397,10 +1415,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:I34"/>
+  <dimension ref="C1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1409,11 +1427,11 @@
     <col min="4" max="4" width="13.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="12.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="48" customWidth="1"/>
-    <col min="8" max="8" width="67.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="56" customWidth="1"/>
+    <col min="9" max="9" width="67.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="3:9">
+    <row r="1" ht="18.75" spans="3:10">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1421,12 +1439,13 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="3" spans="3:9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="3" spans="3:10">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1439,456 +1458,493 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:9">
-      <c r="C4" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+    </row>
+    <row r="4" spans="3:10">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="3:9">
-      <c r="C5" s="5" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="7" t="s">
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="3:9">
-      <c r="C6" s="5" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="7" t="s">
+      <c r="J5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="7" t="s">
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="3:9">
-      <c r="C8" s="5" t="s">
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="7" t="s">
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="5" t="s">
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="3:9">
-      <c r="C10" s="5" t="s">
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="3:9">
-      <c r="C11" s="5" t="s">
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="C12" s="5" t="s">
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="3:9">
-      <c r="C13" s="5" t="s">
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="3:9">
-      <c r="C14" s="5" t="s">
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="3:9">
-      <c r="C15" s="5" t="s">
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="3:9">
-      <c r="C16" s="5" t="s">
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="5" t="s">
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="5" t="s">
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="5" t="s">
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" s="5" t="s">
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21" s="5" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22" s="5" t="s">
+      <c r="D19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="C23" s="5" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="C24" s="5" t="s">
+      <c r="D21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="3:9">
-      <c r="C25" s="5" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="3:9">
-      <c r="C26" s="5" t="s">
+      <c r="D23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="C27" s="5" t="s">
+      <c r="D24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="3:9">
-      <c r="C28" s="5" t="s">
+      <c r="D25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="3:9">
-      <c r="C29" s="5" t="s">
+      <c r="D26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="3:9">
-      <c r="C30" s="5" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="3:9">
-      <c r="C31" s="5" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="3:9">
-      <c r="C32" s="5" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="3:9">
-      <c r="C33" s="5" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Docs/notes.xlsx
+++ b/Docs/notes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>Danh sách làm việc theo bảng sql</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Xây dựng Domain.Entities để nhận giá trị trong lớp xử lý Infrastructure</t>
+  </si>
+  <si>
+    <t>update đồ án lên .Net 8.0</t>
   </si>
   <si>
     <t>ChucVu</t>
@@ -845,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,9 +857,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1417,8 +1417,8 @@
   <sheetPr/>
   <dimension ref="C1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1458,10 +1458,10 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1470,476 +1470,476 @@
       </c>
     </row>
     <row r="4" spans="3:10">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:10">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="9" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="3:10">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="9" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="3:10">
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="9"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="3:10">
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="3:10">
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="3:10">
-      <c r="C16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="G16" s="8"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
+      <c r="E17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="G19" s="8"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
+      <c r="G21" s="8"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="3:10">
-      <c r="C21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="G23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="3:10">
-      <c r="C22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="G24" s="8"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="C25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="3:10">
-      <c r="C27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="3:10">
-      <c r="C28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="C28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="3:10">
-      <c r="C29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="C29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="3:10">
-      <c r="C30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="C30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="3:10">
-      <c r="C31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="C31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="3:10">
-      <c r="C32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="C32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="3:10">
-      <c r="C33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="C33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Docs/notes.xlsx
+++ b/Docs/notes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>Danh sách làm việc theo bảng sql</t>
   </si>
@@ -38,13 +38,11 @@
     <t>TÊN BẢNG</t>
   </si>
   <si>
-    <t>CHECK</t>
-  </si>
-  <si>
     <t>NOTES</t>
   </si>
   <si>
-    <t>FIX THEO CHUẨN CLEAN ARCHITECTURE</t>
+    <t>FIX THEO CHUẨN 
+CLEAN ARCHITECTURE</t>
   </si>
   <si>
     <t>TEST</t>
@@ -59,15 +57,9 @@
     <t>TaiKhoan</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t xml:space="preserve">File mẫu </t>
   </si>
   <si>
-    <t>Đã fix</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -80,39 +72,45 @@
     <t>ThongTinCaNhan</t>
   </si>
   <si>
+    <t xml:space="preserve">Hàm Update áp dụng cho nhân viên và bệnh nhân </t>
+  </si>
+  <si>
+    <t>chuyển Domain.DTO -&gt; Application.DTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo Application.DTOs để thay thế Domain.DTO cũ </t>
+  </si>
+  <si>
+    <t>BenhNhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hàm Update áp dụng cho Admin </t>
+  </si>
+  <si>
+    <t>Xây dựng Domain.Entities để nhận giá trị trong lớp xử lý Infrastructure</t>
+  </si>
+  <si>
+    <t>update đồ án lên .Net 8.0</t>
+  </si>
+  <si>
+    <t>ChucVu</t>
+  </si>
+  <si>
+    <t>Xóa Domain.Repository khi hoàn thành fix</t>
+  </si>
+  <si>
+    <t>NhanVien</t>
+  </si>
+  <si>
+    <t>Xóa Domain.DTO khi hoàn thành fix</t>
+  </si>
+  <si>
+    <t>BacSiProfile</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>chuyển Domain.DTO -&gt; Application.DTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tạo Application.DTOs để thay thế Domain.DTO cũ </t>
-  </si>
-  <si>
-    <t>BenhNhan</t>
-  </si>
-  <si>
-    <t>Xây dựng Domain.Entities để nhận giá trị trong lớp xử lý Infrastructure</t>
-  </si>
-  <si>
-    <t>update đồ án lên .Net 8.0</t>
-  </si>
-  <si>
-    <t>ChucVu</t>
-  </si>
-  <si>
-    <t>Xóa Domain.Repository khi hoàn thành fix</t>
-  </si>
-  <si>
-    <t>NhanVien</t>
-  </si>
-  <si>
-    <t>Xóa Domain.DTO khi hoàn thành fix</t>
-  </si>
-  <si>
-    <t>BacSiProfile</t>
-  </si>
-  <si>
     <t>PhongKham</t>
   </si>
   <si>
@@ -141,6 +139,9 @@
   </si>
   <si>
     <t>HoSoBenhAn</t>
+  </si>
+  <si>
+    <t>Chưa làm</t>
   </si>
   <si>
     <t>PhienKham</t>
@@ -848,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,20 +862,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1415,536 +1419,492 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:J34"/>
+  <dimension ref="C1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="33.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="13.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="12.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="48" customWidth="1"/>
-    <col min="9" max="9" width="67.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="56" customWidth="1"/>
+    <col min="1" max="1" width="4.60952380952381" customWidth="1"/>
+    <col min="2" max="2" width="5.4952380952381" customWidth="1"/>
+    <col min="3" max="3" width="28.0190476190476" customWidth="1"/>
+    <col min="4" max="4" width="42.5333333333333" customWidth="1"/>
+    <col min="5" max="5" width="27.8" customWidth="1"/>
+    <col min="8" max="8" width="67.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="3:10">
+    <row r="1" ht="18.75" spans="3:9">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="3" spans="3:10">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="3" ht="61" customHeight="1" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4"/>
       <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:10">
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="5" t="s">
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="8" t="s">
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10">
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="8" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="C8" s="5" t="s">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="8" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="5" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="3:10">
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="3:10">
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="3:10">
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="3:10">
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="4"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="5" t="s">
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="4"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="5" t="s">
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="4"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="3:10">
-      <c r="C21" s="5" t="s">
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="4"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="3:10">
-      <c r="C22" s="5" t="s">
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="4"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23" s="5" t="s">
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="4"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="5" t="s">
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="4"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="C25" s="5" t="s">
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="4"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="5" t="s">
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="4"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="3:10">
-      <c r="C27" s="5" t="s">
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="4"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="3:10">
-      <c r="C28" s="5" t="s">
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="4"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="3:10">
-      <c r="C29" s="5" t="s">
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="4"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="3:10">
-      <c r="C30" s="5" t="s">
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="4"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="3:10">
-      <c r="C31" s="5" t="s">
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="4"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="3:10">
-      <c r="C32" s="5" t="s">
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="4"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="3:10">
-      <c r="C33" s="5" t="s">
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="4"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Docs/notes.xlsx
+++ b/Docs/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>Danh sách làm việc theo bảng sql</t>
   </si>
@@ -1421,8 +1421,8 @@
   <sheetPr/>
   <dimension ref="C1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1600,10 +1600,12 @@
         <v>28</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="8"/>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1613,10 +1615,12 @@
         <v>29</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="8"/>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>

--- a/Docs/notes.xlsx
+++ b/Docs/notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Danh sách làm việc theo bảng sql</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>KhungGioKham</t>
+  </si>
+  <si>
+    <t>Có kiểm tra trùng.</t>
   </si>
   <si>
     <t>CaKham</t>
@@ -1422,7 +1425,7 @@
   <dimension ref="C1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1672,18 +1675,22 @@
       <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="8"/>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>32</v>
@@ -1698,11 +1705,11 @@
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5"/>
@@ -1711,7 +1718,7 @@
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
@@ -1724,7 +1731,7 @@
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
@@ -1737,20 +1744,22 @@
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="8"/>
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -1761,7 +1770,7 @@
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
@@ -1774,7 +1783,7 @@
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
@@ -1787,7 +1796,7 @@
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
@@ -1800,7 +1809,7 @@
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
@@ -1813,11 +1822,11 @@
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="5"/>
@@ -1826,11 +1835,11 @@
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="5"/>
@@ -1839,11 +1848,11 @@
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="5"/>
@@ -1852,11 +1861,11 @@
     </row>
     <row r="30" spans="3:9">
       <c r="C30" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="5"/>
@@ -1865,11 +1874,11 @@
     </row>
     <row r="31" spans="3:9">
       <c r="C31" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="5"/>
@@ -1878,11 +1887,11 @@
     </row>
     <row r="32" spans="3:9">
       <c r="C32" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="5"/>
@@ -1891,11 +1900,11 @@
     </row>
     <row r="33" spans="3:9">
       <c r="C33" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="5"/>

--- a/Docs/notes.xlsx
+++ b/Docs/notes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>Danh sách làm việc theo bảng sql</t>
   </si>
@@ -108,12 +108,12 @@
     <t>BacSiProfile</t>
   </si>
   <si>
+    <t>PhongKham</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>PhongKham</t>
-  </si>
-  <si>
     <t>PhongChucNang</t>
   </si>
   <si>
@@ -126,9 +126,6 @@
     <t>LichLamViecNhanVien</t>
   </si>
   <si>
-    <t>CHƯA FIX</t>
-  </si>
-  <si>
     <t>NgayNghiNhanVien</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>ToaThuoc</t>
+  </si>
+  <si>
+    <t>Bổ sung sau.</t>
   </si>
   <si>
     <t>ChiTietToaThuoc</t>
@@ -202,7 +202,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,15 +226,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="-0.499984740745262"/>
+      <name val="Wingdings 2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -387,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +424,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000" tint="0.799981688894314"/>
+        <bgColor rgb="FF000000" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor rgb="FF000000" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -581,7 +639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -599,6 +657,131 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -722,137 +905,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,31 +1045,148 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1422,10 +1722,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:I34"/>
+  <dimension ref="C1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1456,468 +1756,480 @@
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:9">
-      <c r="C4" s="6" t="s">
+    <row r="4" ht="15.75" spans="3:9">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="8" t="s">
+      <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:9">
-      <c r="C5" s="6" t="s">
+    <row r="5" ht="15.75" spans="3:9">
+      <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8" t="s">
+      <c r="E5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:9">
-      <c r="C6" s="6" t="s">
+    <row r="6" ht="15.75" spans="3:9">
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="8" t="s">
+      <c r="E6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="6" t="s">
+    <row r="7" ht="15.75" spans="3:9">
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="8" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="3:9">
-      <c r="C8" s="6" t="s">
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" ht="15.75" spans="3:9">
+      <c r="C8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="8" t="s">
+      <c r="E8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" ht="15.75" spans="3:9">
+      <c r="C10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="3:9">
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="3:9">
-      <c r="C11" s="6" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" ht="15.75" spans="3:9">
+      <c r="C11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="3:9">
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="3:9">
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="E24" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="3:9">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="3:9">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="3:9">
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="3:9">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="3:9">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="3:9">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="3:9">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="3:9">
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="10"/>
+      <c r="D34" s="48"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="49" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Docs/notes.xlsx
+++ b/Docs/notes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
   <si>
     <t>Danh sách làm việc theo bảng sql</t>
   </si>
@@ -190,6 +190,127 @@
   </si>
   <si>
     <t>BaiViet</t>
+  </si>
+  <si>
+    <t>Tên bảng / Nguồn</t>
+  </si>
+  <si>
+    <t>Khi nào dùng</t>
+  </si>
+  <si>
+    <t>Loại nghiệp vụ</t>
+  </si>
+  <si>
+    <t>Thêm / sửa nhân viên, phân quyền chức danh</t>
+  </si>
+  <si>
+    <t>Master dữ liệu</t>
+  </si>
+  <si>
+    <t>Chọn phòng khám, phòng điều trị, phòng CLS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ Có API riêng: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET /api/{TenBang}</t>
+    </r>
+  </si>
+  <si>
+    <t>Gán thiết bị cho phòng, chọn thiết bị sử dụng</t>
+  </si>
+  <si>
+    <t>→ Dùng nhiều nơi, ít thay đổi</t>
+  </si>
+  <si>
+    <t>Đặt lịch khám, tạo ca khám</t>
+  </si>
+  <si>
+    <t>Chỉ định xét nghiệm, CLS trong phiên khám / liệu trình</t>
+  </si>
+  <si>
+    <t>Nghiệp vụ</t>
+  </si>
+  <si>
+    <t>Lập toa thuốc, chi tiết toa thuốc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ Luôn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lọc theo ngữ cảnh</t>
+    </r>
+  </si>
+  <si>
+    <t>Chuẩn đoán bệnh, phân loại bài viết</t>
+  </si>
+  <si>
+    <t>Ví dụ:</t>
+  </si>
+  <si>
+    <t>Chọn bác sĩ khám, nhân viên chỉ định / thực hiện</t>
+  </si>
+  <si>
+    <t>Nghiệp vụ (lọc theo chức vụ)</t>
+  </si>
+  <si>
+    <t>NhanVien → lọc theo Chức vụ = Bác sĩ</t>
+  </si>
+  <si>
+    <t>Đặt lịch, gán bệnh nhân, lập liệu trình</t>
+  </si>
+  <si>
+    <t>CaKham → lọc theo Ngày + Trạng thái = Trống</t>
+  </si>
+  <si>
+    <t>Gán lịch tái khám, tạo phiên khám</t>
+  </si>
+  <si>
+    <t>Lập toa thuốc, CLS, liệu trình, AI training</t>
+  </si>
+  <si>
+    <t>Enum / Hardcode</t>
+  </si>
+  <si>
+    <t>TrangThai (ENUM)</t>
+  </si>
+  <si>
+    <t>Chọn trạng thái ca khám, phiên khám, CLS</t>
+  </si>
+  <si>
+    <t>❌ Không tạo bảng</t>
+  </si>
+  <si>
+    <t>GioiTinh (ENUM)</t>
+  </si>
+  <si>
+    <t>Khai báo hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>✅ Dùng enum trung tâm C# / constants FE</t>
+  </si>
+  <si>
+    <t>VaiTro (ENUM)</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản, phân quyền hệ thống</t>
   </si>
 </sst>
 </file>
@@ -202,7 +323,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +392,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -415,7 +544,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,12 +567,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
         <bgColor rgb="FF000000" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -905,133 +1028,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,49 +1258,34 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1185,6 +1293,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1722,10 +1845,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:I39"/>
+  <dimension ref="C1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1773,7 +1896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="3:9">
+    <row r="4" spans="3:9">
       <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1794,7 +1917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="3:9">
+    <row r="5" spans="3:9">
       <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1815,7 +1938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="3:9">
+    <row r="6" spans="3:9">
       <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1836,7 +1959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="3:9">
+    <row r="7" spans="3:9">
       <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
@@ -1853,7 +1976,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" ht="15.75" spans="3:9">
+    <row r="8" spans="3:9">
       <c r="C8" s="18" t="s">
         <v>23</v>
       </c>
@@ -1887,7 +2010,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" ht="15.75" spans="3:9">
+    <row r="10" spans="3:9">
       <c r="C10" s="18" t="s">
         <v>26</v>
       </c>
@@ -1900,7 +2023,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" ht="15.75" spans="3:9">
+    <row r="11" spans="3:9">
       <c r="C11" s="14" t="s">
         <v>28</v>
       </c>
@@ -2112,14 +2235,14 @@
       <c r="I25" s="13"/>
     </row>
     <row r="26" spans="3:9">
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="36" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="34" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7"/>
@@ -2127,102 +2250,300 @@
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="3:9">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="40"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="7"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="3:9">
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42" t="s">
+      <c r="D28" s="38"/>
+      <c r="E28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="43"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="7"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="3:9">
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="40"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="7"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="42" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="43"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="7"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
     <row r="31" spans="3:9">
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="40"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="7"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="3:9">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="42" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="43"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="7"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="3:9">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46" t="s">
+      <c r="D33" s="40"/>
+      <c r="E33" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="47"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="7"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="48"/>
+      <c r="D34" s="43"/>
     </row>
     <row r="39" spans="6:6">
-      <c r="F39" s="49" t="s">
-        <v>10</v>
+      <c r="F39" s="44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="C44" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" ht="30" spans="3:8">
+      <c r="C47" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" ht="30" spans="3:8">
+      <c r="C50" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" s="49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" s="48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="47" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/notes.xlsx
+++ b/Docs/notes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
   <si>
     <t>Danh sách làm việc theo bảng sql</t>
   </si>
@@ -211,6 +211,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">→ Có API riêng: </t>
     </r>
     <r>
@@ -244,6 +251,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">→ Luôn </t>
     </r>
     <r>
@@ -1267,14 +1281,14 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1847,8 +1861,8 @@
   <sheetPr/>
   <dimension ref="C1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2071,10 +2085,12 @@
         <v>31</v>
       </c>
       <c r="D14" s="23"/>
-      <c r="E14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="25"/>
+      <c r="E14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -2083,7 +2099,6 @@
       <c r="C15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="22"/>
       <c r="E15" s="26" t="s">
         <v>27</v>
       </c>
@@ -2140,10 +2155,12 @@
         <v>38</v>
       </c>
       <c r="D19" s="22"/>
-      <c r="E19" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="27"/>
+      <c r="E19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -2153,10 +2170,12 @@
         <v>39</v>
       </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="25"/>
+      <c r="E20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -2181,8 +2200,12 @@
         <v>41</v>
       </c>
       <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
+      <c r="E22" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -2254,10 +2277,12 @@
         <v>47</v>
       </c>
       <c r="D27" s="35"/>
-      <c r="E27" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="37"/>
+      <c r="E27" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -2266,7 +2291,7 @@
       <c r="C28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="26" t="s">
         <v>37</v>
       </c>
@@ -2280,10 +2305,10 @@
         <v>49</v>
       </c>
       <c r="D29" s="35"/>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="37"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="7"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -2306,10 +2331,10 @@
         <v>51</v>
       </c>
       <c r="D31" s="35"/>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="37"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="7"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>

--- a/Docs/notes.xlsx
+++ b/Docs/notes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
   <si>
     <t>Danh sách làm việc theo bảng sql</t>
   </si>
@@ -1861,8 +1861,8 @@
   <sheetPr/>
   <dimension ref="C1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2072,10 +2072,12 @@
         <v>30</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="27"/>
+      <c r="E13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -2129,10 +2131,12 @@
         <v>35</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="27"/>
+      <c r="E17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
